--- a/bacen/lake/teste.xlsx
+++ b/bacen/lake/teste.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">update</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-05 21:38:42</t>
+    <t xml:space="preserve">2025-03-07 16:30:49</t>
   </si>
 </sst>
 </file>
